--- a/Charts/不同预测方法得到的海水表面温度数据.xlsx
+++ b/Charts/不同预测方法得到的海水表面温度数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\meisai\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\meisai\Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E36093-F5B4-4101-9966-D45786A69469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51AC64-8AF9-402D-96A8-8810EAFB2D2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2399,6 +2399,56 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.1209163029515528E-3"/>
+                  <c:y val="-3.1017429001150138E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Sheet 1'!$A$2:$A$51</c:f>
@@ -2750,6 +2800,56 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.1329661013811919E-2"/>
+                  <c:y val="3.8281872069362115E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Sheet 1'!$A$2:$A$51</c:f>
@@ -3101,6 +3201,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Sheet 1'!$A$2:$A$51</c:f>
@@ -3452,6 +3596,56 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5087828407908814E-2"/>
+                  <c:y val="-4.669851661800702E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Sheet 1'!$A$2:$A$51</c:f>
@@ -5589,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Charts/不同预测方法得到的海水表面温度数据.xlsx
+++ b/Charts/不同预测方法得到的海水表面温度数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\meisai\Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51AC64-8AF9-402D-96A8-8810EAFB2D2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4BF12D-9BAE-439D-9BA9-AD5DF0ABE09A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
-  <si>
-    <t>ResultGrey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VAR+Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>RCP3-PD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +194,14 @@
   </si>
   <si>
     <t>[50,]</t>
+  </si>
+  <si>
+    <t>VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season-Grey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2031,7 +2031,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ResultGrey</c:v>
+                  <c:v>Season-Grey</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2382,7 +2382,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR+Index</c:v>
+                  <c:v>VAR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5783,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5794,19 +5794,19 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,16 +5849,16 @@
         <v>12.5289580597445</v>
       </c>
       <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,7 +5881,7 @@
         <v>12.560971669774901</v>
       </c>
       <c r="M4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>11.173080000000001</v>
@@ -5916,7 +5916,7 @@
         <v>12.5936019940691</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>11.19999</v>
@@ -5951,7 +5951,7 @@
         <v>12.6267918181974</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>11.404730000000001</v>
@@ -5986,7 +5986,7 @@
         <v>12.6606577278269</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>11.391859999999999</v>
@@ -6021,7 +6021,7 @@
         <v>12.695313826941099</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N8">
         <v>11.149850000000001</v>
@@ -6056,7 +6056,7 @@
         <v>12.7307871452992</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <v>11.33155</v>
@@ -6091,7 +6091,7 @@
         <v>12.7670704037658</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>11.242760000000001</v>
@@ -6126,7 +6126,7 @@
         <v>12.804083468634699</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>11.224500000000001</v>
@@ -6161,7 +6161,7 @@
         <v>12.8417251695247</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>11.22011</v>
@@ -6196,7 +6196,7 @@
         <v>12.8799501426712</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M13">
         <v>11.221539999999999</v>
@@ -6231,7 +6231,7 @@
         <v>12.918760144376</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M14">
         <v>11.20036</v>
@@ -6266,7 +6266,7 @@
         <v>12.9581642214124</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M15">
         <v>11.15507</v>
@@ -6301,7 +6301,7 @@
         <v>12.998273613321301</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M16">
         <v>11.21893</v>
@@ -6336,7 +6336,7 @@
         <v>13.039300143346299</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M17">
         <v>11.22157</v>
@@ -6371,7 +6371,7 @@
         <v>13.081437811919001</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18">
         <v>11.243499999999999</v>
@@ -6406,7 +6406,7 @@
         <v>13.124793794374099</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M19">
         <v>11.272410000000001</v>
@@ -6441,7 +6441,7 @@
         <v>13.169388814642801</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M20">
         <v>11.31114</v>
@@ -6476,7 +6476,7 @@
         <v>13.2152144973182</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M21">
         <v>11.308339999999999</v>
@@ -6511,7 +6511,7 @@
         <v>13.262184240559501</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M22">
         <v>11.336539999999999</v>
@@ -6546,7 +6546,7 @@
         <v>13.310185022651201</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M23">
         <v>11.38172</v>
@@ -6581,7 +6581,7 @@
         <v>13.3591646628077</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M24">
         <v>11.37466</v>
@@ -6616,7 +6616,7 @@
         <v>13.409120306322301</v>
       </c>
       <c r="L25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M25">
         <v>11.42027</v>
@@ -6651,7 +6651,7 @@
         <v>13.4601902174328</v>
       </c>
       <c r="L26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M26">
         <v>11.449350000000001</v>
@@ -6686,7 +6686,7 @@
         <v>13.512404212993699</v>
       </c>
       <c r="L27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27">
         <v>11.439769999999999</v>
@@ -6721,7 +6721,7 @@
         <v>13.565769644958699</v>
       </c>
       <c r="L28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M28">
         <v>11.444750000000001</v>
@@ -6756,7 +6756,7 @@
         <v>13.6204799405507</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M29">
         <v>11.46692</v>
@@ -6791,7 +6791,7 @@
         <v>13.6766539900048</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M30">
         <v>11.497109999999999</v>
@@ -6826,7 +6826,7 @@
         <v>13.734336308342501</v>
       </c>
       <c r="L31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M31">
         <v>11.499879999999999</v>
@@ -6861,7 +6861,7 @@
         <v>13.7935238170682</v>
       </c>
       <c r="L32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M32">
         <v>11.52167</v>
@@ -6896,7 +6896,7 @@
         <v>13.8541292796502</v>
       </c>
       <c r="L33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M33">
         <v>11.54712</v>
@@ -6931,7 +6931,7 @@
         <v>13.9160369080883</v>
       </c>
       <c r="L34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M34">
         <v>11.544230000000001</v>
@@ -6966,7 +6966,7 @@
         <v>13.9791913444102</v>
       </c>
       <c r="L35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M35">
         <v>11.564500000000001</v>
@@ -7001,7 +7001,7 @@
         <v>14.0435835942572</v>
       </c>
       <c r="L36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M36">
         <v>11.58779</v>
@@ -7036,7 +7036,7 @@
         <v>14.1092129507895</v>
       </c>
       <c r="L37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M37">
         <v>11.614089999999999</v>
@@ -7071,7 +7071,7 @@
         <v>14.175969196852501</v>
       </c>
       <c r="L38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M38">
         <v>11.63456</v>
@@ -7106,7 +7106,7 @@
         <v>14.243875624212899</v>
       </c>
       <c r="L39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M39">
         <v>11.64691</v>
@@ -7141,7 +7141,7 @@
         <v>14.313162075776001</v>
       </c>
       <c r="L40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M40">
         <v>11.66151</v>
@@ -7176,7 +7176,7 @@
         <v>14.3839562156826</v>
       </c>
       <c r="L41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M41">
         <v>11.663880000000001</v>
@@ -7211,7 +7211,7 @@
         <v>14.456312566631601</v>
       </c>
       <c r="L42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M42">
         <v>11.68538</v>
@@ -7246,7 +7246,7 @@
         <v>14.5302433789894</v>
       </c>
       <c r="L43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M43">
         <v>11.701079999999999</v>
@@ -7281,7 +7281,7 @@
         <v>14.605661503579199</v>
       </c>
       <c r="L44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M44">
         <v>11.701829999999999</v>
@@ -7316,7 +7316,7 @@
         <v>14.682448523083</v>
       </c>
       <c r="L45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M45">
         <v>11.710990000000001</v>
@@ -7351,7 +7351,7 @@
         <v>14.7602755246021</v>
       </c>
       <c r="L46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M46">
         <v>11.714829999999999</v>
@@ -7386,7 +7386,7 @@
         <v>14.8388852413763</v>
       </c>
       <c r="L47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M47">
         <v>11.715389999999999</v>
@@ -7421,7 +7421,7 @@
         <v>14.9183111346233</v>
       </c>
       <c r="L48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M48">
         <v>11.7194</v>
@@ -7456,7 +7456,7 @@
         <v>14.998465033313501</v>
       </c>
       <c r="L49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M49">
         <v>11.72936</v>
@@ -7491,7 +7491,7 @@
         <v>15.0793653442708</v>
       </c>
       <c r="L50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M50">
         <v>11.734970000000001</v>
@@ -7526,7 +7526,7 @@
         <v>15.1612034267391</v>
       </c>
       <c r="L51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M51">
         <v>11.733840000000001</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M52">
         <v>11.73471</v>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M53">
         <v>11.73456</v>
